--- a/Data/Tatu Paasimaa MM-Kisaveikkaus 2022.xlsx
+++ b/Data/Tatu Paasimaa MM-Kisaveikkaus 2022.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="85">
   <si>
     <t xml:space="preserve">MM-KISAVEIKKAUS 2022</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romelu Lukaku</t>
   </si>
   <si>
     <t xml:space="preserve">Argentiina</t>
@@ -634,10 +637,10 @@
   <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.72"/>
@@ -809,13 +812,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,13 +829,13 @@
         <v>44886</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="18" t="n">
         <v>1</v>
@@ -844,10 +847,10 @@
         <v>2</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>20</v>
@@ -861,13 +864,13 @@
         <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="18" t="n">
         <v>1</v>
@@ -879,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>26</v>
@@ -890,19 +893,19 @@
     </row>
     <row r="10" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="18" t="n">
         <v>4</v>
@@ -914,18 +917,18 @@
         <v>0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>23</v>
@@ -934,7 +937,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="18" t="n">
         <v>3</v>
@@ -948,19 +951,19 @@
     </row>
     <row r="12" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="16" t="n">
         <v>44887</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="18" t="n">
         <v>1</v>
@@ -974,19 +977,19 @@
     </row>
     <row r="13" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="18" t="n">
         <v>1</v>
@@ -1000,19 +1003,19 @@
     </row>
     <row r="14" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="18" t="n">
         <v>1</v>
@@ -1026,19 +1029,19 @@
     </row>
     <row r="15" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="18" t="n">
         <v>1</v>
@@ -1052,19 +1055,19 @@
     </row>
     <row r="16" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" s="18" t="n">
         <v>3</v>
@@ -1078,7 +1081,7 @@
     </row>
     <row r="17" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="16" t="n">
         <v>44888</v>
@@ -1090,7 +1093,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="18" t="n">
         <v>3</v>
@@ -1104,19 +1107,19 @@
     </row>
     <row r="18" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="18" t="n">
         <v>1</v>
@@ -1130,19 +1133,19 @@
     </row>
     <row r="19" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="18" t="n">
         <v>2</v>
@@ -1156,19 +1159,19 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20" s="18" t="n">
         <v>1</v>
@@ -1182,7 +1185,7 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="16" t="n">
         <v>44889</v>
@@ -1194,7 +1197,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" s="18" t="n">
         <v>3</v>
@@ -1214,7 +1217,7 @@
         <v>44890</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>17</v>
@@ -1246,7 +1249,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" s="18" t="n">
         <v>2</v>
@@ -1266,7 +1269,7 @@
         <v>44890</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>17</v>
@@ -1298,7 +1301,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F25" s="18" t="n">
         <v>2</v>
@@ -1312,19 +1315,19 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="18" t="n">
         <v>1</v>
@@ -1338,19 +1341,19 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="18" t="n">
         <v>2</v>
@@ -1364,13 +1367,13 @@
     </row>
     <row r="28" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>17</v>
@@ -1390,19 +1393,19 @@
     </row>
     <row r="29" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" s="18" t="n">
         <v>2</v>
@@ -1416,19 +1419,19 @@
     </row>
     <row r="30" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" s="18" t="n">
         <v>1</v>
@@ -1442,7 +1445,7 @@
     </row>
     <row r="31" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="16" t="n">
         <v>44892</v>
@@ -1454,7 +1457,7 @@
         <v>17</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F31" s="18" t="n">
         <v>2</v>
@@ -1468,19 +1471,19 @@
     </row>
     <row r="32" s="15" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32" s="18" t="n">
         <v>2</v>
@@ -1494,19 +1497,19 @@
     </row>
     <row r="33" s="15" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F33" s="18" t="n">
         <v>1</v>
@@ -1520,19 +1523,19 @@
     </row>
     <row r="34" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18" t="n">
         <v>1</v>
@@ -1546,19 +1549,19 @@
     </row>
     <row r="35" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F35" s="18" t="n">
         <v>1</v>
@@ -1572,7 +1575,7 @@
     </row>
     <row r="36" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" s="16" t="n">
         <v>44893</v>
@@ -1584,7 +1587,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F36" s="18" t="n">
         <v>2</v>
@@ -1598,19 +1601,19 @@
     </row>
     <row r="37" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F37" s="18" t="n">
         <v>1</v>
@@ -1636,7 +1639,7 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18" t="n">
         <v>2</v>
@@ -1656,7 +1659,7 @@
         <v>44894</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>17</v>
@@ -1688,7 +1691,7 @@
         <v>17</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" s="18" t="n">
         <v>1</v>
@@ -1708,7 +1711,7 @@
         <v>44894</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>17</v>
@@ -1728,19 +1731,19 @@
     </row>
     <row r="42" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F42" s="18" t="n">
         <v>0</v>
@@ -1754,13 +1757,13 @@
     </row>
     <row r="43" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>17</v>
@@ -1780,19 +1783,19 @@
     </row>
     <row r="44" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" s="18" t="n">
         <v>0</v>
@@ -1806,19 +1809,19 @@
     </row>
     <row r="45" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18" t="n">
         <v>1</v>
@@ -1832,13 +1835,13 @@
     </row>
     <row r="46" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>17</v>
@@ -1858,19 +1861,19 @@
     </row>
     <row r="47" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="18" t="n">
         <v>2</v>
@@ -1884,19 +1887,19 @@
     </row>
     <row r="48" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="18" t="n">
         <v>1</v>
@@ -1910,19 +1913,19 @@
     </row>
     <row r="49" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49" s="18" t="n">
         <v>0</v>
@@ -1936,19 +1939,19 @@
     </row>
     <row r="50" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F50" s="18" t="n">
         <v>1</v>
@@ -1962,19 +1965,19 @@
     </row>
     <row r="51" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="18" t="n">
         <v>1</v>
@@ -1988,19 +1991,19 @@
     </row>
     <row r="52" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52" s="18" t="n">
         <v>1</v>
@@ -2014,13 +2017,13 @@
     </row>
     <row r="53" s="15" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>17</v>
@@ -2057,10 +2060,10 @@
     </row>
     <row r="59" s="20" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="23" t="n">
@@ -2070,7 +2073,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="21"/>
@@ -2099,7 +2102,7 @@
     </row>
     <row r="64" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="28"/>
       <c r="F64" s="2"/>
@@ -2108,14 +2111,14 @@
     </row>
     <row r="65" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="28"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" s="28"/>
       <c r="F66" s="21"/>
@@ -2130,28 +2133,28 @@
     </row>
     <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" s="28"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" s="28"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" s="28"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" s="28"/>
       <c r="J71" s="15"/>
@@ -2163,7 +2166,7 @@
     </row>
     <row r="73" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" s="28"/>
       <c r="J73" s="15"/>
@@ -2175,7 +2178,7 @@
     </row>
     <row r="75" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="28"/>
       <c r="J75" s="15"/>
@@ -2187,7 +2190,7 @@
     </row>
     <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" s="28"/>
       <c r="I77" s="29"/>
@@ -2200,7 +2203,7 @@
     </row>
     <row r="79" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="28"/>
       <c r="J79" s="15"/>
@@ -2212,14 +2215,14 @@
     </row>
     <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="28"/>
       <c r="J81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="29"/>
     </row>
@@ -2228,12 +2231,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="30"/>
       <c r="D84" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E84" s="30"/>
       <c r="J84" s="15"/>
@@ -2248,7 +2251,7 @@
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3"/>
     </row>
@@ -2331,7 +2334,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2354,7 +2357,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
